--- a/data/trans_orig/P36B14_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B14_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C14EB39-CCE5-4734-83AF-C43538EF3BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB9932E8-A5D1-48A3-BD7A-C150C78CAD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{085556FA-C4E4-45A2-8CEB-D491B6B58099}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ABFFCADE-1200-48B4-9B98-25567B782E6B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="124">
   <si>
     <t>Población según el número de veces a la semana que consume los vegetales cocinados, la pasta, el arroz u otros platos aderezados con una salsa de tomate, ajo, cebolla o puerro elaborada a fuego lento con aceite de oliva (sofrito) en 2023 (Tasa respuesta: 99,62%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>10,96%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
   </si>
   <si>
     <t>10,38%</t>
   </si>
   <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
   </si>
   <si>
     <t>Una por semana</t>
@@ -104,28 +104,28 @@
     <t>47,52%</t>
   </si>
   <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
   </si>
   <si>
     <t>51,96%</t>
   </si>
   <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
   </si>
   <si>
     <t>50,22%</t>
   </si>
   <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
   </si>
   <si>
     <t>Dos o más por semana</t>
@@ -134,28 +134,28 @@
     <t>41,52%</t>
   </si>
   <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
   </si>
   <si>
     <t>38,03%</t>
   </si>
   <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
   </si>
   <si>
     <t>39,39%</t>
   </si>
   <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,241 +167,244 @@
     <t>8,11%</t>
   </si>
   <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
   </si>
   <si>
     <t>8,88%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
   </si>
   <si>
     <t>8,5%</t>
   </si>
   <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>9,98%</t>
   </si>
   <si>
     <t>9,51%</t>
   </si>
   <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>10,53%</t>
   </si>
   <si>
     <t>9,1%</t>
   </si>
   <si>
-    <t>9,96%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
   </si>
   <si>
     <t>43,93%</t>
   </si>
   <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
   </si>
   <si>
     <t>42,4%</t>
   </si>
   <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
   </si>
   <si>
     <t>43,12%</t>
   </si>
   <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
   </si>
   <si>
     <t>47,42%</t>
   </si>
   <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
   </si>
   <si>
     <t>48,09%</t>
   </si>
   <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
   </si>
   <si>
     <t>47,77%</t>
   </si>
   <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -816,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B022A719-38D9-4A18-89F3-73A51490B9CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43462D8E-1D50-44D4-A7E7-67D94035BF43}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1472,10 +1475,10 @@
         <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>915</v>
@@ -1484,13 +1487,13 @@
         <v>733798</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1558,13 +1561,13 @@
         <v>290847</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>527</v>
@@ -1573,10 +1576,10 @@
         <v>359962</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>101</v>
@@ -1591,10 +1594,10 @@
         <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1609,13 +1612,13 @@
         <v>1477778</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>2223</v>
@@ -1624,28 +1627,28 @@
         <v>1605288</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>3691</v>
       </c>
       <c r="N17" s="7">
-        <v>3083065</v>
+        <v>3083066</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1660,13 +1663,13 @@
         <v>1595113</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>2589</v>
@@ -1675,13 +1678,13 @@
         <v>1820525</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>4191</v>
@@ -1690,13 +1693,13 @@
         <v>3415638</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1738,7 +1741,7 @@
         <v>8687</v>
       </c>
       <c r="N19" s="7">
-        <v>7149512</v>
+        <v>7149513</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1752,7 +1755,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
